--- a/stock_historical_data/1mo/CAMS.NS.xlsx
+++ b/stock_historical_data/1mo/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,60 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3603.800048828125</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3570</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3570</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3570</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>22</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/CAMS.NS.xlsx
+++ b/stock_historical_data/1mo/CAMS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>backup</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>detect_structure</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>1</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>2</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>1</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>3</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>2</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2852,7 +2986,12 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/CAMS.NS.xlsx
+++ b/stock_historical_data/1mo/CAMS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B2" t="n">
-        <v>1302</v>
+        <v>1318.489293138657</v>
       </c>
       <c r="C2" t="n">
-        <v>1498.699951171875</v>
+        <v>1382.556730622155</v>
       </c>
       <c r="D2" t="n">
-        <v>1260</v>
+        <v>1200.568067625552</v>
       </c>
       <c r="E2" t="n">
-        <v>1445.150024414062</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1368.677001953125</v>
-      </c>
+        <v>1204.142822265625</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>4364740</v>
+        <v>4689799</v>
       </c>
       <c r="H2" t="n">
         <v>2020</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>44</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B3" t="n">
-        <v>1444</v>
+        <v>1302</v>
       </c>
       <c r="C3" t="n">
-        <v>1890</v>
+        <v>1498.699951171875</v>
       </c>
       <c r="D3" t="n">
-        <v>1425.650024414062</v>
+        <v>1260</v>
       </c>
       <c r="E3" t="n">
-        <v>1805.699951171875</v>
+        <v>1445.150024414062</v>
       </c>
       <c r="F3" t="n">
-        <v>1718.696899414062</v>
+        <v>1368.677001953125</v>
       </c>
       <c r="G3" t="n">
-        <v>8159845</v>
+        <v>4364740</v>
       </c>
       <c r="H3" t="n">
         <v>2020</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B4" t="n">
-        <v>1791</v>
+        <v>1444</v>
       </c>
       <c r="C4" t="n">
-        <v>1865</v>
+        <v>1890</v>
       </c>
       <c r="D4" t="n">
-        <v>1752</v>
+        <v>1425.650024414062</v>
       </c>
       <c r="E4" t="n">
-        <v>1776.75</v>
+        <v>1805.699951171875</v>
       </c>
       <c r="F4" t="n">
-        <v>1691.14208984375</v>
+        <v>1718.696899414062</v>
       </c>
       <c r="G4" t="n">
-        <v>2076209</v>
+        <v>8159845</v>
       </c>
       <c r="H4" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B5" t="n">
-        <v>1780</v>
+        <v>1791</v>
       </c>
       <c r="C5" t="n">
-        <v>2023.300048828125</v>
+        <v>1865</v>
       </c>
       <c r="D5" t="n">
-        <v>1701</v>
+        <v>1752</v>
       </c>
       <c r="E5" t="n">
-        <v>1825.5</v>
+        <v>1776.75</v>
       </c>
       <c r="F5" t="n">
-        <v>1737.542846679688</v>
+        <v>1691.14208984375</v>
       </c>
       <c r="G5" t="n">
-        <v>3093464</v>
+        <v>2076209</v>
       </c>
       <c r="H5" t="n">
         <v>2021</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B6" t="n">
-        <v>1840</v>
+        <v>1780</v>
       </c>
       <c r="C6" t="n">
-        <v>1939</v>
+        <v>2023.300048828125</v>
       </c>
       <c r="D6" t="n">
-        <v>1741.5</v>
+        <v>1701</v>
       </c>
       <c r="E6" t="n">
-        <v>1846.400024414062</v>
+        <v>1825.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1764.484619140625</v>
+        <v>1737.542846679688</v>
       </c>
       <c r="G6" t="n">
-        <v>2141484</v>
+        <v>3093464</v>
       </c>
       <c r="H6" t="n">
         <v>2021</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B7" t="n">
-        <v>1865</v>
+        <v>1840</v>
       </c>
       <c r="C7" t="n">
-        <v>2429.300048828125</v>
+        <v>1939</v>
       </c>
       <c r="D7" t="n">
-        <v>1771.5</v>
+        <v>1741.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2323.25</v>
+        <v>1846.400024414062</v>
       </c>
       <c r="F7" t="n">
-        <v>2220.178955078125</v>
+        <v>1764.484619140625</v>
       </c>
       <c r="G7" t="n">
-        <v>3514388</v>
+        <v>2141484</v>
       </c>
       <c r="H7" t="n">
         <v>2021</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B8" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2429.300048828125</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1771.5</v>
+      </c>
+      <c r="E8" t="n">
         <v>2323.25</v>
       </c>
-      <c r="C8" t="n">
-        <v>2618.89990234375</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2200</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2501.89990234375</v>
-      </c>
       <c r="F8" t="n">
-        <v>2390.9033203125</v>
+        <v>2220.178955078125</v>
       </c>
       <c r="G8" t="n">
-        <v>4572121</v>
+        <v>3514388</v>
       </c>
       <c r="H8" t="n">
         <v>2021</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B9" t="n">
-        <v>2528.699951171875</v>
+        <v>2323.25</v>
       </c>
       <c r="C9" t="n">
-        <v>2945</v>
+        <v>2618.89990234375</v>
       </c>
       <c r="D9" t="n">
-        <v>2491</v>
+        <v>2200</v>
       </c>
       <c r="E9" t="n">
-        <v>2792.39990234375</v>
+        <v>2501.89990234375</v>
       </c>
       <c r="F9" t="n">
-        <v>2668.515625</v>
+        <v>2390.9033203125</v>
       </c>
       <c r="G9" t="n">
-        <v>4364344</v>
+        <v>4572121</v>
       </c>
       <c r="H9" t="n">
         <v>2021</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B10" t="n">
-        <v>2800</v>
+        <v>2528.699951171875</v>
       </c>
       <c r="C10" t="n">
-        <v>3740.64990234375</v>
+        <v>2945</v>
       </c>
       <c r="D10" t="n">
-        <v>2762.60009765625</v>
+        <v>2491</v>
       </c>
       <c r="E10" t="n">
-        <v>3340.75</v>
+        <v>2792.39990234375</v>
       </c>
       <c r="F10" t="n">
-        <v>3192.537841796875</v>
+        <v>2668.515625</v>
       </c>
       <c r="G10" t="n">
-        <v>10254587</v>
+        <v>4364344</v>
       </c>
       <c r="H10" t="n">
         <v>2021</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B11" t="n">
-        <v>3378</v>
+        <v>2800</v>
       </c>
       <c r="C11" t="n">
-        <v>3939.89990234375</v>
+        <v>3740.64990234375</v>
       </c>
       <c r="D11" t="n">
-        <v>2801</v>
+        <v>2762.60009765625</v>
       </c>
       <c r="E11" t="n">
-        <v>3816.75</v>
+        <v>3340.75</v>
       </c>
       <c r="F11" t="n">
-        <v>3660.853515625</v>
+        <v>3192.537841796875</v>
       </c>
       <c r="G11" t="n">
-        <v>7620424</v>
+        <v>10254587</v>
       </c>
       <c r="H11" t="n">
         <v>2021</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B12" t="n">
-        <v>3921</v>
+        <v>3378</v>
       </c>
       <c r="C12" t="n">
-        <v>4067.39990234375</v>
+        <v>3939.89990234375</v>
       </c>
       <c r="D12" t="n">
-        <v>3020</v>
+        <v>2801</v>
       </c>
       <c r="E12" t="n">
-        <v>3034.550048828125</v>
+        <v>3816.75</v>
       </c>
       <c r="F12" t="n">
-        <v>2916.44775390625</v>
+        <v>3660.853515625</v>
       </c>
       <c r="G12" t="n">
-        <v>9786530</v>
+        <v>7620424</v>
       </c>
       <c r="H12" t="n">
         <v>2021</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B13" t="n">
-        <v>3040</v>
+        <v>3921</v>
       </c>
       <c r="C13" t="n">
-        <v>3211.25</v>
+        <v>4067.39990234375</v>
       </c>
       <c r="D13" t="n">
-        <v>2900</v>
+        <v>3020</v>
       </c>
       <c r="E13" t="n">
-        <v>3012.10009765625</v>
+        <v>3034.550048828125</v>
       </c>
       <c r="F13" t="n">
-        <v>2894.871826171875</v>
+        <v>2916.44775390625</v>
       </c>
       <c r="G13" t="n">
-        <v>6457012</v>
+        <v>9786530</v>
       </c>
       <c r="H13" t="n">
         <v>2021</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B14" t="n">
+        <v>3040</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3211.25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E14" t="n">
         <v>3012.10009765625</v>
       </c>
-      <c r="C14" t="n">
-        <v>3250</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2884</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3077.5</v>
-      </c>
       <c r="F14" t="n">
-        <v>2957.726318359375</v>
+        <v>2894.871826171875</v>
       </c>
       <c r="G14" t="n">
-        <v>4061244</v>
+        <v>6457012</v>
       </c>
       <c r="H14" t="n">
         <v>2021</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B15" t="n">
-        <v>3035.699951171875</v>
+        <v>3012.10009765625</v>
       </c>
       <c r="C15" t="n">
-        <v>3100</v>
+        <v>3250</v>
       </c>
       <c r="D15" t="n">
-        <v>2560.050048828125</v>
+        <v>2884</v>
       </c>
       <c r="E15" t="n">
-        <v>2666.10009765625</v>
+        <v>3077.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2570.53857421875</v>
+        <v>2957.726318359375</v>
       </c>
       <c r="G15" t="n">
-        <v>8560818</v>
+        <v>4061244</v>
       </c>
       <c r="H15" t="n">
         <v>2021</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B16" t="n">
-        <v>2684</v>
+        <v>3035.699951171875</v>
       </c>
       <c r="C16" t="n">
-        <v>2971.5</v>
+        <v>3100</v>
       </c>
       <c r="D16" t="n">
-        <v>2551.25</v>
+        <v>2560.050048828125</v>
       </c>
       <c r="E16" t="n">
-        <v>2697.35009765625</v>
+        <v>2666.10009765625</v>
       </c>
       <c r="F16" t="n">
-        <v>2600.667724609375</v>
+        <v>2570.53857421875</v>
       </c>
       <c r="G16" t="n">
-        <v>3369669</v>
+        <v>8560818</v>
       </c>
       <c r="H16" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B17" t="n">
-        <v>2727.64990234375</v>
+        <v>2684</v>
       </c>
       <c r="C17" t="n">
-        <v>2948</v>
+        <v>2971.5</v>
       </c>
       <c r="D17" t="n">
-        <v>2230</v>
+        <v>2551.25</v>
       </c>
       <c r="E17" t="n">
-        <v>2494.300048828125</v>
+        <v>2697.35009765625</v>
       </c>
       <c r="F17" t="n">
-        <v>2404.89599609375</v>
+        <v>2600.667724609375</v>
       </c>
       <c r="G17" t="n">
-        <v>5475940</v>
+        <v>3369669</v>
       </c>
       <c r="H17" t="n">
         <v>2022</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B18" t="n">
+        <v>2727.64990234375</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2948</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2230</v>
+      </c>
+      <c r="E18" t="n">
         <v>2494.300048828125</v>
       </c>
-      <c r="C18" t="n">
-        <v>2547.949951171875</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2292</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2315.85009765625</v>
-      </c>
       <c r="F18" t="n">
-        <v>2242.24267578125</v>
+        <v>2404.89599609375</v>
       </c>
       <c r="G18" t="n">
-        <v>4549240</v>
+        <v>5475940</v>
       </c>
       <c r="H18" t="n">
         <v>2022</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B19" t="n">
-        <v>2320.800048828125</v>
+        <v>2494.300048828125</v>
       </c>
       <c r="C19" t="n">
-        <v>2682.75</v>
+        <v>2547.949951171875</v>
       </c>
       <c r="D19" t="n">
-        <v>2320.800048828125</v>
+        <v>2292</v>
       </c>
       <c r="E19" t="n">
-        <v>2478.39990234375</v>
+        <v>2315.85009765625</v>
       </c>
       <c r="F19" t="n">
-        <v>2399.62548828125</v>
+        <v>2242.24267578125</v>
       </c>
       <c r="G19" t="n">
-        <v>2996401</v>
+        <v>4549240</v>
       </c>
       <c r="H19" t="n">
         <v>2022</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B20" t="n">
-        <v>2456.35009765625</v>
+        <v>2320.800048828125</v>
       </c>
       <c r="C20" t="n">
-        <v>2489</v>
+        <v>2682.75</v>
       </c>
       <c r="D20" t="n">
-        <v>2037.150024414062</v>
+        <v>2320.800048828125</v>
       </c>
       <c r="E20" t="n">
-        <v>2325.699951171875</v>
+        <v>2478.39990234375</v>
       </c>
       <c r="F20" t="n">
-        <v>2251.779296875</v>
+        <v>2399.62548828125</v>
       </c>
       <c r="G20" t="n">
-        <v>3324879</v>
+        <v>2996401</v>
       </c>
       <c r="H20" t="n">
         <v>2022</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B21" t="n">
-        <v>2333</v>
+        <v>2456.35009765625</v>
       </c>
       <c r="C21" t="n">
-        <v>2656</v>
+        <v>2489</v>
       </c>
       <c r="D21" t="n">
-        <v>2232</v>
+        <v>2037.150024414062</v>
       </c>
       <c r="E21" t="n">
-        <v>2257.75</v>
+        <v>2325.699951171875</v>
       </c>
       <c r="F21" t="n">
-        <v>2185.98876953125</v>
+        <v>2251.779296875</v>
       </c>
       <c r="G21" t="n">
-        <v>4374059</v>
+        <v>3324879</v>
       </c>
       <c r="H21" t="n">
         <v>2022</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B22" t="n">
-        <v>2258.800048828125</v>
+        <v>2333</v>
       </c>
       <c r="C22" t="n">
-        <v>2470</v>
+        <v>2656</v>
       </c>
       <c r="D22" t="n">
-        <v>2152</v>
+        <v>2232</v>
       </c>
       <c r="E22" t="n">
-        <v>2457.64990234375</v>
+        <v>2257.75</v>
       </c>
       <c r="F22" t="n">
-        <v>2392.0478515625</v>
+        <v>2185.98876953125</v>
       </c>
       <c r="G22" t="n">
-        <v>1889478</v>
+        <v>4374059</v>
       </c>
       <c r="H22" t="n">
         <v>2022</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B23" t="n">
-        <v>2466</v>
+        <v>2258.800048828125</v>
       </c>
       <c r="C23" t="n">
-        <v>2500</v>
+        <v>2470</v>
       </c>
       <c r="D23" t="n">
-        <v>2177.050048828125</v>
+        <v>2152</v>
       </c>
       <c r="E23" t="n">
-        <v>2303.89990234375</v>
+        <v>2457.64990234375</v>
       </c>
       <c r="F23" t="n">
-        <v>2242.40185546875</v>
+        <v>2392.0478515625</v>
       </c>
       <c r="G23" t="n">
-        <v>4093062</v>
+        <v>1889478</v>
       </c>
       <c r="H23" t="n">
         <v>2022</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B24" t="n">
-        <v>2304</v>
+        <v>2466</v>
       </c>
       <c r="C24" t="n">
-        <v>2640</v>
+        <v>2500</v>
       </c>
       <c r="D24" t="n">
-        <v>2275</v>
+        <v>2177.050048828125</v>
       </c>
       <c r="E24" t="n">
-        <v>2527.39990234375</v>
+        <v>2303.89990234375</v>
       </c>
       <c r="F24" t="n">
-        <v>2466.96826171875</v>
+        <v>2242.40185546875</v>
       </c>
       <c r="G24" t="n">
-        <v>4499661</v>
+        <v>4093062</v>
       </c>
       <c r="H24" t="n">
         <v>2022</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B25" t="n">
-        <v>2527</v>
+        <v>2304</v>
       </c>
       <c r="C25" t="n">
-        <v>2690</v>
+        <v>2640</v>
       </c>
       <c r="D25" t="n">
-        <v>2443.050048828125</v>
+        <v>2275</v>
       </c>
       <c r="E25" t="n">
-        <v>2549.14990234375</v>
+        <v>2527.39990234375</v>
       </c>
       <c r="F25" t="n">
-        <v>2488.1982421875</v>
+        <v>2466.96826171875</v>
       </c>
       <c r="G25" t="n">
-        <v>2428502</v>
+        <v>4499661</v>
       </c>
       <c r="H25" t="n">
         <v>2022</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B26" t="n">
-        <v>2556.949951171875</v>
+        <v>2527</v>
       </c>
       <c r="C26" t="n">
-        <v>2556.949951171875</v>
+        <v>2690</v>
       </c>
       <c r="D26" t="n">
-        <v>2255</v>
+        <v>2443.050048828125</v>
       </c>
       <c r="E26" t="n">
-        <v>2298.75</v>
+        <v>2549.14990234375</v>
       </c>
       <c r="F26" t="n">
-        <v>2243.78564453125</v>
+        <v>2488.1982421875</v>
       </c>
       <c r="G26" t="n">
-        <v>3057718</v>
+        <v>2428502</v>
       </c>
       <c r="H26" t="n">
         <v>2022</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B27" t="n">
-        <v>2311</v>
+        <v>2556.949951171875</v>
       </c>
       <c r="C27" t="n">
-        <v>2329.75</v>
+        <v>2556.949951171875</v>
       </c>
       <c r="D27" t="n">
-        <v>2150</v>
+        <v>2255</v>
       </c>
       <c r="E27" t="n">
-        <v>2221.64990234375</v>
+        <v>2298.75</v>
       </c>
       <c r="F27" t="n">
-        <v>2176.396240234375</v>
+        <v>2243.78564453125</v>
       </c>
       <c r="G27" t="n">
-        <v>3516909</v>
+        <v>3057718</v>
       </c>
       <c r="H27" t="n">
         <v>2022</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B28" t="n">
-        <v>2226.699951171875</v>
+        <v>2311</v>
       </c>
       <c r="C28" t="n">
-        <v>2340</v>
+        <v>2329.75</v>
       </c>
       <c r="D28" t="n">
-        <v>2188.10009765625</v>
+        <v>2150</v>
       </c>
       <c r="E28" t="n">
-        <v>2279.75</v>
+        <v>2221.64990234375</v>
       </c>
       <c r="F28" t="n">
-        <v>2233.312744140625</v>
+        <v>2176.396240234375</v>
       </c>
       <c r="G28" t="n">
-        <v>1633028</v>
+        <v>3516909</v>
       </c>
       <c r="H28" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B29" t="n">
-        <v>2288</v>
+        <v>2226.699951171875</v>
       </c>
       <c r="C29" t="n">
-        <v>2331</v>
+        <v>2340</v>
       </c>
       <c r="D29" t="n">
-        <v>2205</v>
+        <v>2188.10009765625</v>
       </c>
       <c r="E29" t="n">
-        <v>2260.050048828125</v>
+        <v>2279.75</v>
       </c>
       <c r="F29" t="n">
-        <v>2214.01416015625</v>
+        <v>2233.312744140625</v>
       </c>
       <c r="G29" t="n">
-        <v>1305651</v>
+        <v>1633028</v>
       </c>
       <c r="H29" t="n">
         <v>2023</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B30" t="n">
-        <v>2255</v>
+        <v>2288</v>
       </c>
       <c r="C30" t="n">
-        <v>2355</v>
+        <v>2331</v>
       </c>
       <c r="D30" t="n">
-        <v>2010</v>
+        <v>2205</v>
       </c>
       <c r="E30" t="n">
-        <v>2030.949951171875</v>
+        <v>2260.050048828125</v>
       </c>
       <c r="F30" t="n">
-        <v>1998.838256835938</v>
+        <v>2214.01416015625</v>
       </c>
       <c r="G30" t="n">
-        <v>1380759</v>
+        <v>1305651</v>
       </c>
       <c r="H30" t="n">
         <v>2023</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B31" t="n">
-        <v>2039</v>
+        <v>2255</v>
       </c>
       <c r="C31" t="n">
-        <v>2263.699951171875</v>
+        <v>2355</v>
       </c>
       <c r="D31" t="n">
-        <v>2026.199951171875</v>
+        <v>2010</v>
       </c>
       <c r="E31" t="n">
-        <v>2061.25</v>
+        <v>2030.949951171875</v>
       </c>
       <c r="F31" t="n">
-        <v>2028.6591796875</v>
+        <v>1998.838256835938</v>
       </c>
       <c r="G31" t="n">
-        <v>1538391</v>
+        <v>1380759</v>
       </c>
       <c r="H31" t="n">
         <v>2023</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B32" t="n">
+        <v>2039</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2263.699951171875</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2026.199951171875</v>
+      </c>
+      <c r="E32" t="n">
         <v>2061.25</v>
       </c>
-      <c r="C32" t="n">
-        <v>2225</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2040.050048828125</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2216.89990234375</v>
-      </c>
       <c r="F32" t="n">
-        <v>2181.84814453125</v>
+        <v>2028.6591796875</v>
       </c>
       <c r="G32" t="n">
-        <v>1975322</v>
+        <v>1538391</v>
       </c>
       <c r="H32" t="n">
         <v>2023</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B33" t="n">
+        <v>2061.25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2225</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2040.050048828125</v>
+      </c>
+      <c r="E33" t="n">
         <v>2216.89990234375</v>
       </c>
-      <c r="C33" t="n">
-        <v>2265</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2132</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2198.550048828125</v>
-      </c>
       <c r="F33" t="n">
-        <v>2163.78857421875</v>
+        <v>2181.84814453125</v>
       </c>
       <c r="G33" t="n">
-        <v>1306383</v>
+        <v>1975322</v>
       </c>
       <c r="H33" t="n">
         <v>2023</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B34" t="n">
-        <v>2238</v>
+        <v>2216.89990234375</v>
       </c>
       <c r="C34" t="n">
-        <v>2392.800048828125</v>
+        <v>2265</v>
       </c>
       <c r="D34" t="n">
-        <v>2220.14990234375</v>
+        <v>2132</v>
       </c>
       <c r="E34" t="n">
-        <v>2356.949951171875</v>
+        <v>2198.550048828125</v>
       </c>
       <c r="F34" t="n">
-        <v>2319.683837890625</v>
+        <v>2163.78857421875</v>
       </c>
       <c r="G34" t="n">
-        <v>2652622</v>
+        <v>1306383</v>
       </c>
       <c r="H34" t="n">
         <v>2023</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B35" t="n">
-        <v>2368.949951171875</v>
+        <v>2238</v>
       </c>
       <c r="C35" t="n">
-        <v>2545.199951171875</v>
+        <v>2392.800048828125</v>
       </c>
       <c r="D35" t="n">
-        <v>2305</v>
+        <v>2220.14990234375</v>
       </c>
       <c r="E35" t="n">
-        <v>2375.449951171875</v>
+        <v>2356.949951171875</v>
       </c>
       <c r="F35" t="n">
-        <v>2337.891357421875</v>
+        <v>2319.683837890625</v>
       </c>
       <c r="G35" t="n">
-        <v>3305536</v>
+        <v>2652622</v>
       </c>
       <c r="H35" t="n">
         <v>2023</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B36" t="n">
-        <v>2376</v>
+        <v>2368.949951171875</v>
       </c>
       <c r="C36" t="n">
-        <v>2667.89990234375</v>
+        <v>2545.199951171875</v>
       </c>
       <c r="D36" t="n">
-        <v>2351</v>
+        <v>2305</v>
       </c>
       <c r="E36" t="n">
-        <v>2510.550048828125</v>
+        <v>2375.449951171875</v>
       </c>
       <c r="F36" t="n">
-        <v>2491.39111328125</v>
+        <v>2337.891357421875</v>
       </c>
       <c r="G36" t="n">
-        <v>3084097</v>
+        <v>3305536</v>
       </c>
       <c r="H36" t="n">
         <v>2023</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B37" t="n">
+        <v>2376</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2667.89990234375</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2351</v>
+      </c>
+      <c r="E37" t="n">
         <v>2510.550048828125</v>
       </c>
-      <c r="C37" t="n">
-        <v>2639</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2240</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2246.89990234375</v>
-      </c>
       <c r="F37" t="n">
-        <v>2229.753173828125</v>
+        <v>2491.39111328125</v>
       </c>
       <c r="G37" t="n">
-        <v>2767082</v>
+        <v>3084097</v>
       </c>
       <c r="H37" t="n">
         <v>2023</v>
       </c>
       <c r="I37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B38" t="n">
-        <v>2258.949951171875</v>
+        <v>2510.550048828125</v>
       </c>
       <c r="C38" t="n">
-        <v>2935</v>
+        <v>2639</v>
       </c>
       <c r="D38" t="n">
-        <v>2230</v>
+        <v>2240</v>
       </c>
       <c r="E38" t="n">
-        <v>2801.14990234375</v>
+        <v>2246.89990234375</v>
       </c>
       <c r="F38" t="n">
-        <v>2779.773193359375</v>
+        <v>2229.753173828125</v>
       </c>
       <c r="G38" t="n">
-        <v>7893592</v>
+        <v>2767082</v>
       </c>
       <c r="H38" t="n">
         <v>2023</v>
       </c>
       <c r="I38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B39" t="n">
-        <v>2820</v>
+        <v>2258.949951171875</v>
       </c>
       <c r="C39" t="n">
-        <v>2988</v>
+        <v>2935</v>
       </c>
       <c r="D39" t="n">
-        <v>2618.050048828125</v>
+        <v>2230</v>
       </c>
       <c r="E39" t="n">
-        <v>2651.39990234375</v>
+        <v>2801.14990234375</v>
       </c>
       <c r="F39" t="n">
-        <v>2640.46435546875</v>
+        <v>2779.773193359375</v>
       </c>
       <c r="G39" t="n">
-        <v>9532137</v>
+        <v>7893592</v>
       </c>
       <c r="H39" t="n">
         <v>2023</v>
       </c>
       <c r="I39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B40" t="n">
-        <v>2659</v>
+        <v>2820</v>
       </c>
       <c r="C40" t="n">
-        <v>2934.85009765625</v>
+        <v>2988</v>
       </c>
       <c r="D40" t="n">
-        <v>2643.300048828125</v>
+        <v>2618.050048828125</v>
       </c>
       <c r="E40" t="n">
-        <v>2897</v>
+        <v>2651.39990234375</v>
       </c>
       <c r="F40" t="n">
-        <v>2885.051513671875</v>
+        <v>2640.46435546875</v>
       </c>
       <c r="G40" t="n">
-        <v>5500005</v>
+        <v>9532137</v>
       </c>
       <c r="H40" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B41" t="n">
-        <v>2933.75</v>
+        <v>2659</v>
       </c>
       <c r="C41" t="n">
-        <v>3242</v>
+        <v>2934.85009765625</v>
       </c>
       <c r="D41" t="n">
-        <v>2776.64990234375</v>
+        <v>2643.300048828125</v>
       </c>
       <c r="E41" t="n">
-        <v>3072.10009765625</v>
+        <v>2897</v>
       </c>
       <c r="F41" t="n">
-        <v>3059.429443359375</v>
+        <v>2885.051513671875</v>
       </c>
       <c r="G41" t="n">
-        <v>8169670</v>
+        <v>5500005</v>
       </c>
       <c r="H41" t="n">
         <v>2024</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2646,31 +2638,31 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B42" t="n">
-        <v>3099</v>
+        <v>2933.75</v>
       </c>
       <c r="C42" t="n">
-        <v>3149.89990234375</v>
+        <v>3242</v>
       </c>
       <c r="D42" t="n">
-        <v>2707.10009765625</v>
+        <v>2776.64990234375</v>
       </c>
       <c r="E42" t="n">
-        <v>2915.64990234375</v>
+        <v>3072.10009765625</v>
       </c>
       <c r="F42" t="n">
-        <v>2915.64990234375</v>
+        <v>3059.429443359375</v>
       </c>
       <c r="G42" t="n">
-        <v>4778209</v>
+        <v>8169670</v>
       </c>
       <c r="H42" t="n">
         <v>2024</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B43" t="n">
-        <v>2954</v>
+        <v>3099</v>
       </c>
       <c r="C43" t="n">
-        <v>3340</v>
+        <v>3149.89990234375</v>
       </c>
       <c r="D43" t="n">
-        <v>2942.050048828125</v>
+        <v>2707.10009765625</v>
       </c>
       <c r="E43" t="n">
-        <v>3202.699951171875</v>
+        <v>2915.64990234375</v>
       </c>
       <c r="F43" t="n">
-        <v>3202.699951171875</v>
+        <v>2915.64990234375</v>
       </c>
       <c r="G43" t="n">
-        <v>8827715</v>
+        <v>4778209</v>
       </c>
       <c r="H43" t="n">
         <v>2024</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B44" t="n">
+        <v>2954</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3340</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2942.050048828125</v>
+      </c>
+      <c r="E44" t="n">
         <v>3202.699951171875</v>
       </c>
-      <c r="C44" t="n">
-        <v>3636.449951171875</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3030.050048828125</v>
-      </c>
-      <c r="E44" t="n">
-        <v>3480.10009765625</v>
-      </c>
       <c r="F44" t="n">
-        <v>3480.10009765625</v>
+        <v>3202.699951171875</v>
       </c>
       <c r="G44" t="n">
-        <v>6734468</v>
+        <v>8827715</v>
       </c>
       <c r="H44" t="n">
         <v>2024</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,56 +2797,514 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B45" t="n">
-        <v>3600</v>
+        <v>3202.699951171875</v>
       </c>
       <c r="C45" t="n">
-        <v>3638.39990234375</v>
+        <v>3636.449951171875</v>
       </c>
       <c r="D45" t="n">
-        <v>3050</v>
+        <v>3030.050048828125</v>
       </c>
       <c r="E45" t="n">
-        <v>3408.10009765625</v>
+        <v>3480.10009765625</v>
       </c>
       <c r="F45" t="n">
-        <v>3408.10009765625</v>
+        <v>3480.10009765625</v>
       </c>
       <c r="G45" t="n">
-        <v>1210538</v>
+        <v>6734468</v>
       </c>
       <c r="H45" t="n">
         <v>2024</v>
       </c>
       <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>18</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3638.39990234375</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3050</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3408.10009765625</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3408.10009765625</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1210538</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="n">
         <v>6</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>22</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3566.761369375672</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4837.78959216424</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3548.139424192064</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4467.5166015625</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>11661462</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>27</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4478.07492288336</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4590.793662420247</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3810.0747962654</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4217.06005859375</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>11257617</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>31</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4266.145103172958</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4736.165159598119</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4201.260109421382</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4374.38623046875</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>6417393</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>35</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4385.200269254073</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4930.721263890174</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4018.11336888665</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4408.7138671875</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>8602002</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>40</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4452.664662907695</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5058.655462026</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4385.200046803033</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4889.59716796875</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>7057915</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>44</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4951.228748331196</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5341.853327973406</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4816.873797371455</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5051.14892578125</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>8897203</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I52" t="n">
+        <v>12</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>48</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4986.260771132448</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5262.584024135524</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3533.037612764717</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3586.281982421875</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>11795520</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3602.653164292137</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3779.852457228593</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3111.063396865872</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3128.081787109375</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>11504295</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3162.050048828125</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3877.85009765625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3031.050048828125</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3723.35009765625</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>10819738</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>9</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
